--- a/media/file_form_template/員工樣板.xlsx
+++ b/media/file_form_template/員工樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\file_form_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8A964-752C-49E1-9991-FEF8AEB68CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D7081-BFDF-4686-93AA-66BE67A20BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>居住城市(系統計算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身分證字號(密碼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +81,10 @@
   </si>
   <si>
     <t>彰化</t>
+  </si>
+  <si>
+    <t>居住城市(系統計算)(參照網頁名稱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -496,36 +496,36 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>44840</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
